--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>747272.6647092004</v>
+        <v>777328.8895231137</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564206</v>
+        <v>516314.6540548913</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9613100.293655323</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9038068.780484974</v>
+        <v>8756676.973278131</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>84.11865576720666</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>243.2386572690345</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +743,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>163.3657543017351</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>155.3197306044668</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>13.46550985000064</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>334.58170967322</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>295.9408816142896</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1034,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494254</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1060,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>17.13267830033018</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1072,10 +1074,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>50.86429663463598</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>49.14618892609914</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>39.44575281341648</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>134.6751203255734</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>229.3953293296476</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>146.4340874029168</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>101.717706569126</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>48.9140155965814</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>372.5327915267488</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>241.4923106593519</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1765,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>58.48269361864183</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>95.29787616176762</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1844,19 +1846,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>275.4805812731078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1898,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>269.5134569480836</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2248,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>50.28788303971709</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>7.272703900894549</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>284.319280643069</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>48.91401559658143</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>71.1951784300993</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>28.71462267227981</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2764,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>122.3450725906904</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>5.363399827271436</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2971,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,28 +2994,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>155.2114886365808</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>9.275596830496642</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>158.9897392454093</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>171.648921133094</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>74.09260911231064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3266,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>303.0063298941509</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>53.371319592716</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3424,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>52.10844059186244</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>128.7835007017901</v>
+        <v>274.4246847141209</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>280.1033070984078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4068,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>8.838043686203362</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017899</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1448.521729839487</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="C2" t="n">
-        <v>1448.521729839487</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D2" t="n">
-        <v>1448.521729839487</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="Y2" t="n">
-        <v>1448.521729839487</v>
+        <v>579.9844679696338</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>355.783005382771</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>181.3299761016439</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>181.3299761016439</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>685.3494183114808</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>939.6101413733256</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>939.6101413733256</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>731.7586411677928</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>523.9983424028389</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942404</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942404</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942404</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942404</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F4" t="n">
-        <v>550.5654064942404</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>35.69404619719919</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942404</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942404</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942404</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1546.944160717209</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1188.678462110459</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>802.8902095122144</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>391.9043047226068</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="C7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="D7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="E7" t="n">
-        <v>432.0692320582251</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="F7" t="n">
-        <v>432.0692320582251</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>263.0694317965575</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>105.3210592290877</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>841.766221650837</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C8" t="n">
-        <v>841.766221650837</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>841.766221650837</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>841.766221650837</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>430.7803168612294</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>430.7803168612294</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>103.5855968972323</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2657.304896257196</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2657.304896257196</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2438.670229229258</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2438.670229229258</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W8" t="n">
-        <v>1618.50539369077</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X8" t="n">
-        <v>1618.50539369077</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y8" t="n">
-        <v>1228.366061714959</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
         <v>665.1105362747051</v>
@@ -4890,13 +4892,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2107.607341885688</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="H11" t="n">
         <v>207.4089578252748</v>
@@ -5039,13 +5041,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5075,16 +5077,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.120401548716</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X11" t="n">
-        <v>2494.20718194981</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y11" t="n">
-        <v>2494.20718194981</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="12">
@@ -5100,10 +5102,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
         <v>359.3385232961342</v>
@@ -5112,7 +5114,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5130,13 +5132,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D13" t="n">
-        <v>578.0123447940985</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E13" t="n">
-        <v>430.0992512117053</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F13" t="n">
-        <v>430.0992512117053</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G13" t="n">
-        <v>261.0994509500377</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>103.3510783825679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5242,7 +5244,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1268.68094731003</v>
+        <v>1954.241103772296</v>
       </c>
       <c r="C14" t="n">
-        <v>1268.68094731003</v>
+        <v>1585.278586831885</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>1227.012888225134</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>841.2246356268899</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>430.2387308372824</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5276,13 +5278,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2289.351746278601</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X14" t="n">
-        <v>2045.420119349963</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y14" t="n">
-        <v>1655.280787374151</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5358,40 +5360,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>190.2718927217162</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C16" t="n">
-        <v>190.2718927217162</v>
+        <v>411.0461427127113</v>
       </c>
       <c r="D16" t="n">
-        <v>190.2718927217162</v>
+        <v>260.9295033003756</v>
       </c>
       <c r="E16" t="n">
-        <v>190.2718927217162</v>
+        <v>113.0164097179825</v>
       </c>
       <c r="F16" t="n">
-        <v>190.2718927217162</v>
+        <v>113.0164097179825</v>
       </c>
       <c r="G16" t="n">
-        <v>190.2718927217162</v>
+        <v>113.0164097179825</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>113.0164097179825</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5458,28 +5460,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T16" t="n">
-        <v>286.5323736931987</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U16" t="n">
-        <v>190.2718927217162</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V16" t="n">
-        <v>190.2718927217162</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W16" t="n">
-        <v>190.2718927217162</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X16" t="n">
-        <v>190.2718927217162</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.2718927217162</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C17" t="n">
-        <v>1268.68094731003</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D17" t="n">
-        <v>1268.68094731003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5513,13 +5515,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5546,19 +5548,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5701,13 +5703,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
         <v>53.94298182036445</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.915471247702</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E20" t="n">
-        <v>737.1647017090463</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F20" t="n">
-        <v>326.1787969194388</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5841,7 +5843,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>252.6519168570173</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="C22" t="n">
-        <v>252.6519168570173</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D22" t="n">
-        <v>252.6519168570173</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E22" t="n">
-        <v>104.7388232746241</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F22" t="n">
-        <v>104.7388232746241</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H22" t="n">
         <v>53.94298182036445</v>
@@ -5935,25 +5937,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="V22" t="n">
-        <v>473.4444960005474</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="W22" t="n">
-        <v>473.4444960005474</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="X22" t="n">
-        <v>473.4444960005474</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="Y22" t="n">
-        <v>252.6519168570173</v>
+        <v>506.4943954681378</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776797</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.981643776797</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5987,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="24">
@@ -6042,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6124,22 +6126,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064342</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D25" t="n">
-        <v>578.0123447940985</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E25" t="n">
-        <v>430.0992512117053</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F25" t="n">
-        <v>380.6911546495019</v>
+        <v>262.1862143682812</v>
       </c>
       <c r="G25" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036445</v>
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1637.643464250441</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6227,10 +6229,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6254,22 +6256,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2668.144421652283</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2414.382636290375</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2414.382636290375</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2414.382636290375</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>2414.382636290375</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>2024.243304314563</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6306,10 +6308,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6412,16 +6414,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>571.3497027553424</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V28" t="n">
-        <v>571.3497027553424</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
         <v>53.94298182036445</v>
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1315.737983561872</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C29" t="n">
-        <v>946.7754666214603</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D29" t="n">
-        <v>588.5097680147098</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E29" t="n">
-        <v>588.5097680147098</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F29" t="n">
-        <v>177.5238632251023</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
@@ -6467,7 +6469,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2691.73151543512</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862885</v>
+        <v>2691.73151543512</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862885</v>
+        <v>2691.73151543512</v>
       </c>
       <c r="U29" t="n">
-        <v>2465.942913862885</v>
+        <v>2691.73151543512</v>
       </c>
       <c r="V29" t="n">
-        <v>2465.942913862885</v>
+        <v>2360.668628091549</v>
       </c>
       <c r="W29" t="n">
-        <v>2465.942913862885</v>
+        <v>2007.899972821435</v>
       </c>
       <c r="X29" t="n">
-        <v>2092.477155601805</v>
+        <v>1634.434214560355</v>
       </c>
       <c r="Y29" t="n">
-        <v>1702.337823625994</v>
+        <v>1244.294882584544</v>
       </c>
     </row>
     <row r="30">
@@ -6516,73 +6518,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>550.5654064942401</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>336.2769833124028</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="T31" t="n">
-        <v>108.9687959810045</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="U31" t="n">
-        <v>99.5995062532301</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="V31" t="n">
-        <v>99.5995062532301</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="W31" t="n">
-        <v>99.5995062532301</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="X31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y31" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1031.077791139709</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="C32" t="n">
-        <v>1031.077791139709</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="D32" t="n">
-        <v>1031.077791139709</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="E32" t="n">
-        <v>645.2895385414645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F32" t="n">
-        <v>645.2895385414645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>227.3257304396514</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6725,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2478.514423990285</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V32" t="n">
-        <v>2147.451536646714</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W32" t="n">
-        <v>1794.6828813766</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X32" t="n">
-        <v>1421.217123115521</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y32" t="n">
-        <v>1031.077791139709</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6777,43 +6779,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
         <v>53.94298182036445</v>
@@ -6880,28 +6882,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>653.2879649010699</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>438.9995417192326</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>211.6913543878343</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U34" t="n">
-        <v>211.6913543878343</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1525.74665604171</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="C35" t="n">
-        <v>1156.784139101298</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="D35" t="n">
-        <v>1156.784139101298</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E35" t="n">
-        <v>770.9958865030537</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F35" t="n">
-        <v>360.0099817134462</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W35" t="n">
-        <v>2289.351746278601</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X35" t="n">
-        <v>1915.885988017521</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="Y35" t="n">
-        <v>1525.74665604171</v>
+        <v>1310.833184497836</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7026,31 +7028,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>184.0273259635867</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C37" t="n">
-        <v>184.0273259635867</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D37" t="n">
-        <v>184.0273259635867</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>184.0273259635867</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
         <v>53.94298182036445</v>
@@ -7117,28 +7119,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005474</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W37" t="n">
-        <v>184.0273259635867</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X37" t="n">
-        <v>184.0273259635867</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y37" t="n">
-        <v>184.0273259635867</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1577.945354755378</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.982837814967</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082162</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F38" t="n">
         <v>53.94298182036445</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X38" t="n">
-        <v>2354.684526795312</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y38" t="n">
-        <v>1964.5451948195</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7257,37 +7259,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>2549.235997435829</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>2402.346049937919</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>2233.346249676251</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>2075.597877108782</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
         <v>2022.963088632153</v>
@@ -7363,19 +7365,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W40" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1577.945354755378</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.982837814967</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082162</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7409,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7451,10 +7453,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>2354.684526795312</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1964.5451948195</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7600,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>598.0446400632119</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V43" t="n">
-        <v>343.360151857325</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247702</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.982837814967</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082162</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036444</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733124</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1491.354506998273</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1685.688719890255</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.843319642689</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q44" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287635</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1934.002090843955</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2483.438099596678</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U45" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632152</v>
+        <v>1875.077909341535</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632152</v>
+        <v>1706.141726413628</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632152</v>
+        <v>1706.141726413628</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632152</v>
+        <v>1706.141726413628</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632152</v>
+        <v>1706.141726413628</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632152</v>
+        <v>1697.214409558877</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632152</v>
+        <v>1697.214409558877</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632152</v>
+        <v>1697.214409558877</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632152</v>
+        <v>1697.214409558877</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.26528169842</v>
+        <v>1798.262339154487</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>1983.095334055306</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>2188.364934774544</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>2394.188299610648</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>2568.283194999247</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>2693.730771597863</v>
       </c>
       <c r="Q46" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>2566.671129737625</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>2566.671129737625</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>2566.671129737625</v>
       </c>
       <c r="U46" t="n">
-        <v>2567.064746875</v>
+        <v>2277.518953315305</v>
       </c>
       <c r="V46" t="n">
-        <v>2312.380258669113</v>
+        <v>2277.518953315305</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632152</v>
+        <v>2277.518953315305</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632152</v>
+        <v>2277.518953315305</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632152</v>
+        <v>2056.726374171775</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>336.3888653812139</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8702,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,10 +9491,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O21" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10595,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>106.8604465378989</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719084</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,16 +11387,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>21.63976862165688</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>297.8117143050551</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>8.095732519776732</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22629,22 +22631,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>69.43483284769016</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99007165458411</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>140.0857793320303</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>79.20246034757503</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>53.30008710312342</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22948,10 +22950,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>128.2883697226011</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22960,10 +22962,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>84.10132515770225</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>102.7851273187621</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>15.03264976139521</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23081,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23188,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>10.74592769735787</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>94.5274434347096</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>223.2970132755522</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>65.52911452950185</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,13 +23433,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>86.05160619575685</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>41.25137849404621</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>128.2387900191172</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>76.48292817369639</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>190.9839980802101</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23732,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>89.79231049789979</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23786,13 +23788,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>170.102160979652</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23941,16 +23943,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>144.2707130727114</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>117.0219192193338</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923383</v>
@@ -24175,16 +24177,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>217.7624015571897</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>80.95361112793853</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24364,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>96.50703242634981</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>96.11462382895161</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>45.19995918853701</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24494,10 +24496,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>187.733697685378</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24652,19 +24654,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>69.82361682150338</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>291.4390974301045</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>49.11500274754029</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -24737,10 +24739,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24859,7 +24861,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,28 +24882,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>56.93405031343812</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>222.9406308268525</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>152.2738516312631</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24965,13 +24967,13 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923383</v>
@@ -25120,7 +25122,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>72.57258286784722</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25154,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>110.7778401266441</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>316.359781085753</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25312,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>27.38738814000507</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923383</v>
@@ -25357,7 +25359,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>86.9383544042894</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25369,10 +25371,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25400,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>27.53450764830094</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25451,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>82.85718120047582</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
         <v>45.19995918853701</v>
@@ -25603,13 +25605,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25840,16 +25842,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>157.4983735401876</v>
+        <v>11.8571895278568</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>85.16958467259974</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>88.92504442304141</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>158.0827328683671</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401879</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>781628.703216691</v>
+        <v>493776.9532238221</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>781628.7032166909</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>781628.703216691</v>
+        <v>781628.7032166912</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>781628.703216691</v>
+        <v>781628.7032166912</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>781628.7032166909</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>781628.7032166909</v>
+        <v>792815.2339921145</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149697</v>
+        <v>168322.7414503685</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="D2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="E2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="F2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="G2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="H2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="I2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="J2" t="n">
         <v>274694.9795149696</v>
-      </c>
-      <c r="J2" t="n">
-        <v>274694.9795149697</v>
       </c>
       <c r="K2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="L2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="M2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="N2" t="n">
         <v>274694.9795149696</v>
-      </c>
-      <c r="M2" t="n">
-        <v>274694.9795149695</v>
-      </c>
-      <c r="N2" t="n">
-        <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149696</v>
+        <v>284076.0793435334</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>440708.0835147457</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>72254.69487113909</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>102466.1171957467</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>143586.3319036564</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44802.6561755686</v>
+        <v>42169.81622231289</v>
       </c>
       <c r="C4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="D4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="E4" t="n">
         <v>44802.65617556861</v>
@@ -26430,34 +26432,34 @@
         <v>44802.65617556861</v>
       </c>
       <c r="G4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="H4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="I4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="K4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="L4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="N4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="O4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="P4" t="n">
-        <v>44802.65617556861</v>
+        <v>30816.27558774721</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26509,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>53934.4451708468</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-442934.6339385529</v>
+        <v>-51321.79573553753</v>
       </c>
       <c r="C6" t="n">
+        <v>-293674.838238754</v>
+      </c>
+      <c r="D6" t="n">
         <v>147033.2452759916</v>
-      </c>
-      <c r="D6" t="n">
-        <v>147033.2452759917</v>
       </c>
       <c r="E6" t="n">
         <v>180660.8452759916</v>
@@ -26537,31 +26539,31 @@
         <v>180660.8452759917</v>
       </c>
       <c r="H6" t="n">
+        <v>180660.8452759916</v>
+      </c>
+      <c r="I6" t="n">
+        <v>180660.8452759918</v>
+      </c>
+      <c r="J6" t="n">
+        <v>108406.1504048524</v>
+      </c>
+      <c r="K6" t="n">
+        <v>78194.72808024498</v>
+      </c>
+      <c r="L6" t="n">
         <v>180660.8452759917</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>180660.8452759918</v>
+      </c>
+      <c r="N6" t="n">
         <v>180660.8452759915</v>
       </c>
-      <c r="J6" t="n">
-        <v>4237.626083398725</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>180660.8452759917</v>
       </c>
-      <c r="L6" t="n">
-        <v>180660.8452759916</v>
-      </c>
-      <c r="M6" t="n">
-        <v>180660.8452759915</v>
-      </c>
-      <c r="N6" t="n">
-        <v>180660.8452759917</v>
-      </c>
-      <c r="O6" t="n">
-        <v>180660.8452759916</v>
-      </c>
       <c r="P6" t="n">
-        <v>180660.8452759916</v>
+        <v>55739.02668128307</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>35.02126071912529</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26777,7 +26779,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380651</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26814,7 +26816,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26829,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>342.7224034979614</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>215.7324361209785</v>
       </c>
     </row>
     <row r="4">
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>398.1307590522003</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522003</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522003</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J44" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L46" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M46" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S46" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>224.6389055562147</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35659,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35738,10 +35740,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
         <v>421.5361394435301</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245897</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,10 +36211,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,13 +36676,13 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36923,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245897</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530451</v>
@@ -37394,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245897</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245897</v>
@@ -37877,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>295.4457120181086</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624596</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>131.427271174484</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M46" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N46" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
